--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.501366546279429</v>
+        <v>0.5537783333333334</v>
       </c>
       <c r="H2">
-        <v>0.501366546279429</v>
+        <v>1.661335</v>
       </c>
       <c r="I2">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830566</v>
       </c>
       <c r="J2">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830565</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.2555586532394</v>
+        <v>4.972748999999999</v>
       </c>
       <c r="N2">
-        <v>4.2555586532394</v>
+        <v>14.918247</v>
       </c>
       <c r="O2">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="P2">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="Q2">
-        <v>2.133594744464176</v>
+        <v>2.753800653305</v>
       </c>
       <c r="R2">
-        <v>2.133594744464176</v>
+        <v>24.784205879745</v>
       </c>
       <c r="S2">
-        <v>7.487945152503203E-05</v>
+        <v>8.39239427690622E-05</v>
       </c>
       <c r="T2">
-        <v>7.487945152503203E-05</v>
+        <v>8.39239427690622E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.501366546279429</v>
+        <v>0.5537783333333334</v>
       </c>
       <c r="H3">
-        <v>0.501366546279429</v>
+        <v>1.661335</v>
       </c>
       <c r="I3">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830566</v>
       </c>
       <c r="J3">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830565</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.65626502033925</v>
+        <v>4.661742</v>
       </c>
       <c r="N3">
-        <v>4.65626502033925</v>
+        <v>13.985226</v>
       </c>
       <c r="O3">
-        <v>0.1281898768321256</v>
+        <v>0.118868253461235</v>
       </c>
       <c r="P3">
-        <v>0.1281898768321256</v>
+        <v>0.1188682534612351</v>
       </c>
       <c r="Q3">
-        <v>2.334495511809205</v>
+        <v>2.58157171519</v>
       </c>
       <c r="R3">
-        <v>2.334495511809205</v>
+        <v>23.23414543671</v>
       </c>
       <c r="S3">
-        <v>8.193015283969604E-05</v>
+        <v>7.867514905983262E-05</v>
       </c>
       <c r="T3">
-        <v>8.193015283969604E-05</v>
+        <v>7.867514905983263E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.501366546279429</v>
+        <v>0.5537783333333334</v>
       </c>
       <c r="H4">
-        <v>0.501366546279429</v>
+        <v>1.661335</v>
       </c>
       <c r="I4">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830566</v>
       </c>
       <c r="J4">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830565</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.78375548982553</v>
+        <v>7.194976</v>
       </c>
       <c r="N4">
-        <v>5.78375548982553</v>
+        <v>21.584928</v>
       </c>
       <c r="O4">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632551</v>
       </c>
       <c r="P4">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632552</v>
       </c>
       <c r="Q4">
-        <v>2.899781514458513</v>
+        <v>3.984421817653333</v>
       </c>
       <c r="R4">
-        <v>2.899781514458513</v>
+        <v>35.85979635888</v>
       </c>
       <c r="S4">
-        <v>0.0001017691152026204</v>
+        <v>0.0001214279574635229</v>
       </c>
       <c r="T4">
-        <v>0.0001017691152026204</v>
+        <v>0.0001214279574635229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.501366546279429</v>
+        <v>0.5537783333333334</v>
       </c>
       <c r="H5">
-        <v>0.501366546279429</v>
+        <v>1.661335</v>
       </c>
       <c r="I5">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830566</v>
       </c>
       <c r="J5">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830565</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.4891803735378</v>
+        <v>14.550925</v>
       </c>
       <c r="N5">
-        <v>14.4891803735378</v>
+        <v>43.652775</v>
       </c>
       <c r="O5">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="P5">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="Q5">
-        <v>7.264390322300335</v>
+        <v>8.057986994958334</v>
       </c>
       <c r="R5">
-        <v>7.264390322300335</v>
+        <v>72.521882954625</v>
       </c>
       <c r="S5">
-        <v>0.0002549469923512613</v>
+        <v>0.0002455726192769666</v>
       </c>
       <c r="T5">
-        <v>0.0002549469923512613</v>
+        <v>0.0002455726192769666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.501366546279429</v>
+        <v>0.5537783333333334</v>
       </c>
       <c r="H6">
-        <v>0.501366546279429</v>
+        <v>1.661335</v>
       </c>
       <c r="I6">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830566</v>
       </c>
       <c r="J6">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830565</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.27681437972067</v>
+        <v>2.29111</v>
       </c>
       <c r="N6">
-        <v>2.27681437972067</v>
+        <v>6.87333</v>
       </c>
       <c r="O6">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="P6">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="Q6">
-        <v>1.141518562079893</v>
+        <v>1.268767077283333</v>
       </c>
       <c r="R6">
-        <v>1.141518562079893</v>
+        <v>11.41890369555</v>
       </c>
       <c r="S6">
-        <v>4.006209897918164E-05</v>
+        <v>3.866653726492653E-05</v>
       </c>
       <c r="T6">
-        <v>4.006209897918164E-05</v>
+        <v>3.866653726492653E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.501366546279429</v>
+        <v>0.5537783333333334</v>
       </c>
       <c r="H7">
-        <v>0.501366546279429</v>
+        <v>1.661335</v>
       </c>
       <c r="I7">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830566</v>
       </c>
       <c r="J7">
-        <v>0.0006391312236534078</v>
+        <v>0.0006618684700830565</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.8616142742191</v>
+        <v>5.546219</v>
       </c>
       <c r="N7">
-        <v>4.8616142742191</v>
+        <v>16.638657</v>
       </c>
       <c r="O7">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="P7">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="Q7">
-        <v>2.437450758008003</v>
+        <v>3.071375914121667</v>
       </c>
       <c r="R7">
-        <v>2.437450758008003</v>
+        <v>27.642383227095</v>
       </c>
       <c r="S7">
-        <v>8.554341275561637E-05</v>
+        <v>9.360226424874561E-05</v>
       </c>
       <c r="T7">
-        <v>8.554341275561637E-05</v>
+        <v>9.36022642487456E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.68831995227891</v>
+        <v>9.761401666666666</v>
       </c>
       <c r="H8">
-        <v>9.68831995227891</v>
+        <v>29.284205</v>
       </c>
       <c r="I8">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="J8">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.2555586532394</v>
+        <v>4.972748999999999</v>
       </c>
       <c r="N8">
-        <v>4.2555586532394</v>
+        <v>14.918247</v>
       </c>
       <c r="O8">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="P8">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="Q8">
-        <v>41.22921380827245</v>
+        <v>48.54100037651499</v>
       </c>
       <c r="R8">
-        <v>41.22921380827245</v>
+        <v>436.869003388635</v>
       </c>
       <c r="S8">
-        <v>0.00144695749967599</v>
+        <v>0.001479319911070004</v>
       </c>
       <c r="T8">
-        <v>0.00144695749967599</v>
+        <v>0.001479319911070004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.68831995227891</v>
+        <v>9.761401666666666</v>
       </c>
       <c r="H9">
-        <v>9.68831995227891</v>
+        <v>29.284205</v>
       </c>
       <c r="I9">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="J9">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.65626502033925</v>
+        <v>4.661742</v>
       </c>
       <c r="N9">
-        <v>4.65626502033925</v>
+        <v>13.985226</v>
       </c>
       <c r="O9">
-        <v>0.1281898768321256</v>
+        <v>0.118868253461235</v>
       </c>
       <c r="P9">
-        <v>0.1281898768321256</v>
+        <v>0.1188682534612351</v>
       </c>
       <c r="Q9">
-        <v>45.11138529965112</v>
+        <v>45.50513612837</v>
       </c>
       <c r="R9">
-        <v>45.11138529965112</v>
+        <v>409.54622515533</v>
       </c>
       <c r="S9">
-        <v>0.001583204025758222</v>
+        <v>0.001386799888928901</v>
       </c>
       <c r="T9">
-        <v>0.001583204025758222</v>
+        <v>0.001386799888928901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.68831995227891</v>
+        <v>9.761401666666666</v>
       </c>
       <c r="H10">
-        <v>9.68831995227891</v>
+        <v>29.284205</v>
       </c>
       <c r="I10">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="J10">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.78375548982553</v>
+        <v>7.194976</v>
       </c>
       <c r="N10">
-        <v>5.78375548982553</v>
+        <v>21.584928</v>
       </c>
       <c r="O10">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632551</v>
       </c>
       <c r="P10">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632552</v>
       </c>
       <c r="Q10">
-        <v>56.03487371117936</v>
+        <v>70.23305071802666</v>
       </c>
       <c r="R10">
-        <v>56.03487371117936</v>
+        <v>632.09745646224</v>
       </c>
       <c r="S10">
-        <v>0.001966568684448687</v>
+        <v>0.002140399858603524</v>
       </c>
       <c r="T10">
-        <v>0.001966568684448687</v>
+        <v>0.002140399858603524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.68831995227891</v>
+        <v>9.761401666666666</v>
       </c>
       <c r="H11">
-        <v>9.68831995227891</v>
+        <v>29.284205</v>
       </c>
       <c r="I11">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="J11">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.4891803735378</v>
+        <v>14.550925</v>
       </c>
       <c r="N11">
-        <v>14.4891803735378</v>
+        <v>43.652775</v>
       </c>
       <c r="O11">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="P11">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="Q11">
-        <v>140.3758153051143</v>
+        <v>142.0374235465416</v>
       </c>
       <c r="R11">
-        <v>140.3758153051143</v>
+        <v>1278.336811918875</v>
       </c>
       <c r="S11">
-        <v>0.004926551344719363</v>
+        <v>0.004328686824327208</v>
       </c>
       <c r="T11">
-        <v>0.004926551344719363</v>
+        <v>0.004328686824327209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.68831995227891</v>
+        <v>9.761401666666666</v>
       </c>
       <c r="H12">
-        <v>9.68831995227891</v>
+        <v>29.284205</v>
       </c>
       <c r="I12">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="J12">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.27681437972067</v>
+        <v>2.29111</v>
       </c>
       <c r="N12">
-        <v>2.27681437972067</v>
+        <v>6.87333</v>
       </c>
       <c r="O12">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="P12">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="Q12">
-        <v>22.0585061826833</v>
+        <v>22.36444497251667</v>
       </c>
       <c r="R12">
-        <v>22.0585061826833</v>
+        <v>201.28000475265</v>
       </c>
       <c r="S12">
-        <v>0.0007741530338441393</v>
+        <v>0.0006815716299880804</v>
       </c>
       <c r="T12">
-        <v>0.0007741530338441393</v>
+        <v>0.0006815716299880805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.68831995227891</v>
+        <v>9.761401666666666</v>
       </c>
       <c r="H13">
-        <v>9.68831995227891</v>
+        <v>29.284205</v>
       </c>
       <c r="I13">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="J13">
-        <v>0.01235046062047121</v>
+        <v>0.01166669694008047</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.8616142742191</v>
+        <v>5.546219</v>
       </c>
       <c r="N13">
-        <v>4.8616142742191</v>
+        <v>16.638657</v>
       </c>
       <c r="O13">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="P13">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="Q13">
-        <v>47.10087457320086</v>
+        <v>54.13887139029833</v>
       </c>
       <c r="R13">
-        <v>47.10087457320086</v>
+        <v>487.2498425126849</v>
       </c>
       <c r="S13">
-        <v>0.001653026032024811</v>
+        <v>0.001649918827162756</v>
       </c>
       <c r="T13">
-        <v>0.001653026032024811</v>
+        <v>0.001649918827162756</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>298.972838287398</v>
+        <v>344.8372753333334</v>
       </c>
       <c r="H14">
-        <v>298.972838287398</v>
+        <v>1034.511826</v>
       </c>
       <c r="I14">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="J14">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.2555586532394</v>
+        <v>4.972748999999999</v>
       </c>
       <c r="N14">
-        <v>4.2555586532394</v>
+        <v>14.918247</v>
       </c>
       <c r="O14">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="P14">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="Q14">
-        <v>1272.29644905748</v>
+        <v>1714.789216076558</v>
       </c>
       <c r="R14">
-        <v>1272.29644905748</v>
+        <v>15433.10294468902</v>
       </c>
       <c r="S14">
-        <v>0.04465180678282721</v>
+        <v>0.05225936447443895</v>
       </c>
       <c r="T14">
-        <v>0.04465180678282721</v>
+        <v>0.05225936447443896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>298.972838287398</v>
+        <v>344.8372753333334</v>
       </c>
       <c r="H15">
-        <v>298.972838287398</v>
+        <v>1034.511826</v>
       </c>
       <c r="I15">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="J15">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.65626502033925</v>
+        <v>4.661742</v>
       </c>
       <c r="N15">
-        <v>4.65626502033925</v>
+        <v>13.985226</v>
       </c>
       <c r="O15">
-        <v>0.1281898768321256</v>
+        <v>0.118868253461235</v>
       </c>
       <c r="P15">
-        <v>0.1281898768321256</v>
+        <v>0.1188682534612351</v>
       </c>
       <c r="Q15">
-        <v>1392.096768949154</v>
+        <v>1607.542409586964</v>
       </c>
       <c r="R15">
-        <v>1392.096768949154</v>
+        <v>14467.88168628268</v>
       </c>
       <c r="S15">
-        <v>0.04885625201277868</v>
+        <v>0.04899094530284959</v>
       </c>
       <c r="T15">
-        <v>0.04885625201277868</v>
+        <v>0.04899094530284961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>298.972838287398</v>
+        <v>344.8372753333334</v>
       </c>
       <c r="H16">
-        <v>298.972838287398</v>
+        <v>1034.511826</v>
       </c>
       <c r="I16">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="J16">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.78375548982553</v>
+        <v>7.194976</v>
       </c>
       <c r="N16">
-        <v>5.78375548982553</v>
+        <v>21.584928</v>
       </c>
       <c r="O16">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632551</v>
       </c>
       <c r="P16">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632552</v>
       </c>
       <c r="Q16">
-        <v>1729.185794753459</v>
+        <v>2481.095919928725</v>
       </c>
       <c r="R16">
-        <v>1729.185794753459</v>
+        <v>22329.86327935853</v>
       </c>
       <c r="S16">
-        <v>0.06068654051195316</v>
+        <v>0.07561308104809651</v>
       </c>
       <c r="T16">
-        <v>0.06068654051195316</v>
+        <v>0.07561308104809653</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>298.972838287398</v>
+        <v>344.8372753333334</v>
       </c>
       <c r="H17">
-        <v>298.972838287398</v>
+        <v>1034.511826</v>
       </c>
       <c r="I17">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="J17">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.4891803735378</v>
+        <v>14.550925</v>
       </c>
       <c r="N17">
-        <v>14.4891803735378</v>
+        <v>43.652775</v>
       </c>
       <c r="O17">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="P17">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="Q17">
-        <v>4331.871380734658</v>
+        <v>5017.701330579684</v>
       </c>
       <c r="R17">
-        <v>4331.871380734658</v>
+        <v>45159.31197521716</v>
       </c>
       <c r="S17">
-        <v>0.1520289426602685</v>
+        <v>0.152917851477166</v>
       </c>
       <c r="T17">
-        <v>0.1520289426602685</v>
+        <v>0.152917851477166</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>298.972838287398</v>
+        <v>344.8372753333334</v>
       </c>
       <c r="H18">
-        <v>298.972838287398</v>
+        <v>1034.511826</v>
       </c>
       <c r="I18">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="J18">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.27681437972067</v>
+        <v>2.29111</v>
       </c>
       <c r="N18">
-        <v>2.27681437972067</v>
+        <v>6.87333</v>
       </c>
       <c r="O18">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="P18">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="Q18">
-        <v>680.7056573586502</v>
+        <v>790.0601298889535</v>
       </c>
       <c r="R18">
-        <v>680.7056573586502</v>
+        <v>7110.541169000581</v>
       </c>
       <c r="S18">
-        <v>0.02388966621016062</v>
+        <v>0.02407761834370322</v>
       </c>
       <c r="T18">
-        <v>0.02388966621016062</v>
+        <v>0.02407761834370322</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>298.972838287398</v>
+        <v>344.8372753333334</v>
       </c>
       <c r="H19">
-        <v>298.972838287398</v>
+        <v>1034.511826</v>
       </c>
       <c r="I19">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="J19">
-        <v>0.3811241044935215</v>
+        <v>0.4121449072928995</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.8616142742191</v>
+        <v>5.546219</v>
       </c>
       <c r="N19">
-        <v>4.8616142742191</v>
+        <v>16.638657</v>
       </c>
       <c r="O19">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="P19">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="Q19">
-        <v>1453.490618221813</v>
+        <v>1912.543048361965</v>
       </c>
       <c r="R19">
-        <v>1453.490618221813</v>
+        <v>17212.88743525768</v>
       </c>
       <c r="S19">
-        <v>0.0510108963155334</v>
+        <v>0.05828604664664522</v>
       </c>
       <c r="T19">
-        <v>0.0510108963155334</v>
+        <v>0.05828604664664522</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>280.881501899781</v>
+        <v>282.8122453333333</v>
       </c>
       <c r="H20">
-        <v>280.881501899781</v>
+        <v>848.4367359999999</v>
       </c>
       <c r="I20">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="J20">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.2555586532394</v>
+        <v>4.972748999999999</v>
       </c>
       <c r="N20">
-        <v>4.2555586532394</v>
+        <v>14.918247</v>
       </c>
       <c r="O20">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="P20">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="Q20">
-        <v>1195.307705944492</v>
+        <v>1406.354310169088</v>
       </c>
       <c r="R20">
-        <v>1195.307705944492</v>
+        <v>12657.18879152179</v>
       </c>
       <c r="S20">
-        <v>0.04194985278108451</v>
+        <v>0.04285960151037203</v>
       </c>
       <c r="T20">
-        <v>0.04194985278108451</v>
+        <v>0.04285960151037204</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>280.881501899781</v>
+        <v>282.8122453333333</v>
       </c>
       <c r="H21">
-        <v>280.881501899781</v>
+        <v>848.4367359999999</v>
       </c>
       <c r="I21">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="J21">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.65626502033925</v>
+        <v>4.661742</v>
       </c>
       <c r="N21">
-        <v>4.65626502033925</v>
+        <v>13.985226</v>
       </c>
       <c r="O21">
-        <v>0.1281898768321256</v>
+        <v>0.118868253461235</v>
       </c>
       <c r="P21">
-        <v>0.1281898768321256</v>
+        <v>0.1188682534612351</v>
       </c>
       <c r="Q21">
-        <v>1307.858712156303</v>
+        <v>1318.397722184704</v>
       </c>
       <c r="R21">
-        <v>1307.858712156303</v>
+        <v>11865.57949966234</v>
       </c>
       <c r="S21">
-        <v>0.04589988014012142</v>
+        <v>0.04017906483198021</v>
       </c>
       <c r="T21">
-        <v>0.04589988014012142</v>
+        <v>0.04017906483198022</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.881501899781</v>
+        <v>282.8122453333333</v>
       </c>
       <c r="H22">
-        <v>280.881501899781</v>
+        <v>848.4367359999999</v>
       </c>
       <c r="I22">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="J22">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.78375548982553</v>
+        <v>7.194976</v>
       </c>
       <c r="N22">
-        <v>5.78375548982553</v>
+        <v>21.584928</v>
       </c>
       <c r="O22">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632551</v>
       </c>
       <c r="P22">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632552</v>
       </c>
       <c r="Q22">
-        <v>1624.549928603298</v>
+        <v>2034.827317679445</v>
       </c>
       <c r="R22">
-        <v>1624.549928603298</v>
+        <v>18313.445859115</v>
       </c>
       <c r="S22">
-        <v>0.05701429849528174</v>
+        <v>0.0620127426975885</v>
       </c>
       <c r="T22">
-        <v>0.05701429849528174</v>
+        <v>0.06201274269758852</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.881501899781</v>
+        <v>282.8122453333333</v>
       </c>
       <c r="H23">
-        <v>280.881501899781</v>
+        <v>848.4367359999999</v>
       </c>
       <c r="I23">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="J23">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.4891803735378</v>
+        <v>14.550925</v>
       </c>
       <c r="N23">
-        <v>14.4891803735378</v>
+        <v>43.652775</v>
       </c>
       <c r="O23">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="P23">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="Q23">
-        <v>4069.742744616127</v>
+        <v>4115.179770926932</v>
       </c>
       <c r="R23">
-        <v>4069.742744616127</v>
+        <v>37036.6179383424</v>
       </c>
       <c r="S23">
-        <v>0.1428294222019025</v>
+        <v>0.1254128947805953</v>
       </c>
       <c r="T23">
-        <v>0.1428294222019025</v>
+        <v>0.1254128947805953</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.881501899781</v>
+        <v>282.8122453333333</v>
       </c>
       <c r="H24">
-        <v>280.881501899781</v>
+        <v>848.4367359999999</v>
       </c>
       <c r="I24">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="J24">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.27681437972067</v>
+        <v>2.29111</v>
       </c>
       <c r="N24">
-        <v>2.27681437972067</v>
+        <v>6.87333</v>
       </c>
       <c r="O24">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="P24">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="Q24">
-        <v>639.51504252296</v>
+        <v>647.9539634056533</v>
       </c>
       <c r="R24">
-        <v>639.51504252296</v>
+        <v>5831.585670650879</v>
       </c>
       <c r="S24">
-        <v>0.02244406335850477</v>
+        <v>0.01974683653175105</v>
       </c>
       <c r="T24">
-        <v>0.02244406335850477</v>
+        <v>0.01974683653175105</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.881501899781</v>
+        <v>282.8122453333333</v>
       </c>
       <c r="H25">
-        <v>280.881501899781</v>
+        <v>848.4367359999999</v>
       </c>
       <c r="I25">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="J25">
-        <v>0.35806166036208</v>
+        <v>0.3380134195803869</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.8616142742191</v>
+        <v>5.546219</v>
       </c>
       <c r="N25">
-        <v>4.8616142742191</v>
+        <v>16.638657</v>
       </c>
       <c r="O25">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="P25">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="Q25">
-        <v>1365.537519000075</v>
+        <v>1568.538648500394</v>
       </c>
       <c r="R25">
-        <v>1365.537519000075</v>
+        <v>14116.84783650355</v>
       </c>
       <c r="S25">
-        <v>0.04792414338518512</v>
+        <v>0.04780227922809981</v>
       </c>
       <c r="T25">
-        <v>0.04792414338518512</v>
+        <v>0.04780227922809981</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>186.02170179005</v>
+        <v>190.103058</v>
       </c>
       <c r="H26">
-        <v>186.02170179005</v>
+        <v>570.309174</v>
       </c>
       <c r="I26">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="J26">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.2555586532394</v>
+        <v>4.972748999999999</v>
       </c>
       <c r="N26">
-        <v>4.2555586532394</v>
+        <v>14.918247</v>
       </c>
       <c r="O26">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="P26">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="Q26">
-        <v>791.6262627429664</v>
+        <v>945.3347915664419</v>
       </c>
       <c r="R26">
-        <v>791.6262627429664</v>
+        <v>8508.013124097977</v>
       </c>
       <c r="S26">
-        <v>0.02778247393081704</v>
+        <v>0.02880971897868108</v>
       </c>
       <c r="T26">
-        <v>0.02778247393081704</v>
+        <v>0.02880971897868108</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>186.02170179005</v>
+        <v>190.103058</v>
       </c>
       <c r="H27">
-        <v>186.02170179005</v>
+        <v>570.309174</v>
       </c>
       <c r="I27">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="J27">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.65626502033925</v>
+        <v>4.661742</v>
       </c>
       <c r="N27">
-        <v>4.65626502033925</v>
+        <v>13.985226</v>
       </c>
       <c r="O27">
-        <v>0.1281898768321256</v>
+        <v>0.118868253461235</v>
       </c>
       <c r="P27">
-        <v>0.1281898768321256</v>
+        <v>0.1188682534612351</v>
       </c>
       <c r="Q27">
-        <v>866.166343068989</v>
+        <v>886.211409807036</v>
       </c>
       <c r="R27">
-        <v>866.166343068989</v>
+        <v>7975.902688263324</v>
       </c>
       <c r="S27">
-        <v>0.0303984910286873</v>
+        <v>0.02700789381710493</v>
       </c>
       <c r="T27">
-        <v>0.0303984910286873</v>
+        <v>0.02700789381710493</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>186.02170179005</v>
+        <v>190.103058</v>
       </c>
       <c r="H28">
-        <v>186.02170179005</v>
+        <v>570.309174</v>
       </c>
       <c r="I28">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="J28">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.78375548982553</v>
+        <v>7.194976</v>
       </c>
       <c r="N28">
-        <v>5.78375548982553</v>
+        <v>21.584928</v>
       </c>
       <c r="O28">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632551</v>
       </c>
       <c r="P28">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632552</v>
       </c>
       <c r="Q28">
-        <v>1075.904038954889</v>
+        <v>1367.786939836608</v>
       </c>
       <c r="R28">
-        <v>1075.904038954889</v>
+        <v>12310.08245852947</v>
       </c>
       <c r="S28">
-        <v>0.0377593282602227</v>
+        <v>0.04168423473985011</v>
       </c>
       <c r="T28">
-        <v>0.0377593282602227</v>
+        <v>0.04168423473985011</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>186.02170179005</v>
+        <v>190.103058</v>
       </c>
       <c r="H29">
-        <v>186.02170179005</v>
+        <v>570.309174</v>
       </c>
       <c r="I29">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="J29">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.4891803735378</v>
+        <v>14.550925</v>
       </c>
       <c r="N29">
-        <v>14.4891803735378</v>
+        <v>43.652775</v>
       </c>
       <c r="O29">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="P29">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="Q29">
-        <v>2695.301990628494</v>
+        <v>2766.17533922865</v>
       </c>
       <c r="R29">
-        <v>2695.301990628494</v>
+        <v>24895.57805305785</v>
       </c>
       <c r="S29">
-        <v>0.09459281584576348</v>
+        <v>0.08430106971613992</v>
       </c>
       <c r="T29">
-        <v>0.09459281584576348</v>
+        <v>0.08430106971613992</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>186.02170179005</v>
+        <v>190.103058</v>
       </c>
       <c r="H30">
-        <v>186.02170179005</v>
+        <v>570.309174</v>
       </c>
       <c r="I30">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="J30">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.27681437972067</v>
+        <v>2.29111</v>
       </c>
       <c r="N30">
-        <v>2.27681437972067</v>
+        <v>6.87333</v>
       </c>
       <c r="O30">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="P30">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="Q30">
-        <v>423.5368855756961</v>
+        <v>435.54701721438</v>
       </c>
       <c r="R30">
-        <v>423.5368855756961</v>
+        <v>3919.92315492942</v>
       </c>
       <c r="S30">
-        <v>0.01486421438504854</v>
+        <v>0.01327359077428722</v>
       </c>
       <c r="T30">
-        <v>0.01486421438504854</v>
+        <v>0.01327359077428722</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>186.02170179005</v>
+        <v>190.103058</v>
       </c>
       <c r="H31">
-        <v>186.02170179005</v>
+        <v>570.309174</v>
       </c>
       <c r="I31">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="J31">
-        <v>0.237136439942886</v>
+        <v>0.2272086367106644</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.8616142742191</v>
+        <v>5.546219</v>
       </c>
       <c r="N31">
-        <v>4.8616142742191</v>
+        <v>16.638657</v>
       </c>
       <c r="O31">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="P31">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="Q31">
-        <v>904.3657607370359</v>
+        <v>1054.353192237702</v>
       </c>
       <c r="R31">
-        <v>904.3657607370359</v>
+        <v>9489.178730139316</v>
       </c>
       <c r="S31">
-        <v>0.03173911649234689</v>
+        <v>0.03213212868460114</v>
       </c>
       <c r="T31">
-        <v>0.03173911649234689</v>
+        <v>0.03213212868460114</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.384362091706739</v>
+        <v>8.621641666666667</v>
       </c>
       <c r="H32">
-        <v>8.384362091706739</v>
+        <v>25.864925</v>
       </c>
       <c r="I32">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="J32">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.2555586532394</v>
+        <v>4.972748999999999</v>
       </c>
       <c r="N32">
-        <v>4.2555586532394</v>
+        <v>14.918247</v>
       </c>
       <c r="O32">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="P32">
-        <v>0.117158180908461</v>
+        <v>0.1267985204953648</v>
       </c>
       <c r="Q32">
-        <v>35.68014465125501</v>
+        <v>42.87325997627499</v>
       </c>
       <c r="R32">
-        <v>35.68014465125501</v>
+        <v>385.8593397864749</v>
       </c>
       <c r="S32">
-        <v>0.001252210462531273</v>
+        <v>0.001306591678033681</v>
       </c>
       <c r="T32">
-        <v>0.001252210462531273</v>
+        <v>0.001306591678033681</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.384362091706739</v>
+        <v>8.621641666666667</v>
       </c>
       <c r="H33">
-        <v>8.384362091706739</v>
+        <v>25.864925</v>
       </c>
       <c r="I33">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="J33">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.65626502033925</v>
+        <v>4.661742</v>
       </c>
       <c r="N33">
-        <v>4.65626502033925</v>
+        <v>13.985226</v>
       </c>
       <c r="O33">
-        <v>0.1281898768321256</v>
+        <v>0.118868253461235</v>
       </c>
       <c r="P33">
-        <v>0.1281898768321256</v>
+        <v>0.1188682534612351</v>
       </c>
       <c r="Q33">
-        <v>39.03981192547251</v>
+        <v>40.19186906645</v>
       </c>
       <c r="R33">
-        <v>39.03981192547251</v>
+        <v>361.72682159805</v>
       </c>
       <c r="S33">
-        <v>0.001370119471940267</v>
+        <v>0.00122487447131156</v>
       </c>
       <c r="T33">
-        <v>0.001370119471940267</v>
+        <v>0.001224874471311561</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.384362091706739</v>
+        <v>8.621641666666667</v>
       </c>
       <c r="H34">
-        <v>8.384362091706739</v>
+        <v>25.864925</v>
       </c>
       <c r="I34">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="J34">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.78375548982553</v>
+        <v>7.194976</v>
       </c>
       <c r="N34">
-        <v>5.78375548982553</v>
+        <v>21.584928</v>
       </c>
       <c r="O34">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632551</v>
       </c>
       <c r="P34">
-        <v>0.1592303918761578</v>
+        <v>0.1834623689632552</v>
       </c>
       <c r="Q34">
-        <v>48.49310027659391</v>
+        <v>62.03250487226666</v>
       </c>
       <c r="R34">
-        <v>48.49310027659391</v>
+        <v>558.2925438504</v>
       </c>
       <c r="S34">
-        <v>0.001701886809048943</v>
+        <v>0.001890482661652954</v>
       </c>
       <c r="T34">
-        <v>0.001701886809048943</v>
+        <v>0.001890482661652954</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.384362091706739</v>
+        <v>8.621641666666667</v>
       </c>
       <c r="H35">
-        <v>8.384362091706739</v>
+        <v>25.864925</v>
       </c>
       <c r="I35">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="J35">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.4891803735378</v>
+        <v>14.550925</v>
       </c>
       <c r="N35">
-        <v>14.4891803735378</v>
+        <v>43.652775</v>
       </c>
       <c r="O35">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="P35">
-        <v>0.3988961623466476</v>
+        <v>0.3710293364573632</v>
       </c>
       <c r="Q35">
-        <v>121.4825346637916</v>
+        <v>125.4528612685417</v>
       </c>
       <c r="R35">
-        <v>121.4825346637916</v>
+        <v>1129.075751416875</v>
       </c>
       <c r="S35">
-        <v>0.004263483301642591</v>
+        <v>0.003823261039857883</v>
       </c>
       <c r="T35">
-        <v>0.004263483301642591</v>
+        <v>0.003823261039857883</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.384362091706739</v>
+        <v>8.621641666666667</v>
       </c>
       <c r="H36">
-        <v>8.384362091706739</v>
+        <v>25.864925</v>
       </c>
       <c r="I36">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="J36">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.27681437972067</v>
+        <v>2.29111</v>
       </c>
       <c r="N36">
-        <v>2.27681437972067</v>
+        <v>6.87333</v>
       </c>
       <c r="O36">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="P36">
-        <v>0.06268211831394858</v>
+        <v>0.05842027383488194</v>
       </c>
       <c r="Q36">
-        <v>19.08963617518278</v>
+        <v>19.75312943891667</v>
       </c>
       <c r="R36">
-        <v>19.08963617518278</v>
+        <v>177.77816495025</v>
       </c>
       <c r="S36">
-        <v>0.0006699592274113314</v>
+        <v>0.0006019900178874397</v>
       </c>
       <c r="T36">
-        <v>0.0006699592274113314</v>
+        <v>0.0006019900178874397</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.384362091706739</v>
+        <v>8.621641666666667</v>
       </c>
       <c r="H37">
-        <v>8.384362091706739</v>
+        <v>25.864925</v>
       </c>
       <c r="I37">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="J37">
-        <v>0.01068820335738791</v>
+        <v>0.01030447100588563</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.8616142742191</v>
+        <v>5.546219</v>
       </c>
       <c r="N37">
-        <v>4.8616142742191</v>
+        <v>16.638657</v>
       </c>
       <c r="O37">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="P37">
-        <v>0.1338432697226593</v>
+        <v>0.1414212467878998</v>
       </c>
       <c r="Q37">
-        <v>40.76153442526299</v>
+        <v>47.81751282285833</v>
       </c>
       <c r="R37">
-        <v>40.76153442526299</v>
+        <v>430.357615405725</v>
       </c>
       <c r="S37">
-        <v>0.001430544084813503</v>
+        <v>0.00145727113714211</v>
       </c>
       <c r="T37">
-        <v>0.001430544084813503</v>
+        <v>0.001457271137142109</v>
       </c>
     </row>
   </sheetData>
